--- a/map.xlsx
+++ b/map.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/Downloads/keymap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/github.com/takanopontaro/Karabiner-Elements-keymap-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -822,6 +824,9 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
@@ -848,6 +853,9 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
@@ -868,6 +876,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
@@ -888,6 +899,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -908,6 +922,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,6 +945,9 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
@@ -948,6 +968,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
@@ -968,6 +991,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
@@ -988,6 +1014,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1180,6 +1209,9 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1199,6 +1231,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,6 +1253,9 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,6 +1278,9 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1265,6 +1306,9 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
       </c>
@@ -1293,6 +1337,9 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1420,6 +1467,9 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1439,6 +1489,9 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1458,6 +1511,9 @@
       <c r="C38" s="1">
         <v>1</v>
       </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1477,6 +1533,9 @@
       <c r="C39" s="1">
         <v>1</v>
       </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1496,6 +1555,9 @@
       <c r="C40" s="1">
         <v>1</v>
       </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1518,6 +1580,9 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1540,6 +1605,9 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1562,6 +1630,9 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1584,6 +1655,9 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1609,6 +1683,9 @@
       <c r="C45" s="4">
         <v>1</v>
       </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1632,6 +1709,9 @@
       <c r="C46" s="4">
         <v>1</v>
       </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>41</v>
       </c>
@@ -1652,6 +1732,9 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
@@ -1672,6 +1755,9 @@
       <c r="C48" s="1">
         <v>1</v>
       </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
@@ -1692,6 +1778,9 @@
       <c r="C49" s="1">
         <v>1</v>
       </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
@@ -1712,6 +1801,9 @@
       <c r="C50" s="1">
         <v>1</v>
       </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
@@ -1732,6 +1824,9 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
       <c r="E51" s="1">
         <v>4</v>
       </c>
@@ -1752,6 +1847,9 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
       <c r="E52" s="1">
         <v>5</v>
       </c>
@@ -1772,6 +1870,9 @@
       <c r="C53" s="1">
         <v>1</v>
       </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
       <c r="E53" s="1">
         <v>6</v>
       </c>
@@ -1792,6 +1893,9 @@
       <c r="C54" s="1">
         <v>1</v>
       </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
       <c r="E54" s="1">
         <v>7</v>
       </c>
@@ -1812,6 +1916,9 @@
       <c r="C55" s="1">
         <v>1</v>
       </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
       <c r="E55" s="1">
         <v>8</v>
       </c>
@@ -1832,6 +1939,9 @@
       <c r="C56" s="1">
         <v>1</v>
       </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
       <c r="E56" s="1">
         <v>9</v>
       </c>
@@ -1853,6 +1963,9 @@
         <v>73</v>
       </c>
       <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">

--- a/map.xlsx
+++ b/map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
   <si>
     <t>f</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>jumpyを発動</t>
+  </si>
+  <si>
+    <t>cmd,opt</t>
+  </si>
+  <si>
+    <t>前のマッチを選択</t>
+  </si>
+  <si>
+    <t>次のマッチを選択</t>
   </si>
 </sst>
 </file>
@@ -693,9 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1466,39 +1477,63 @@
       <c r="Q29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1508,13 +1543,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -1525,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1542,13 +1577,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -1559,58 +1594,48 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="6"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -1623,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
@@ -1645,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
@@ -1667,16 +1692,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
@@ -1692,16 +1714,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
@@ -1717,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>2</v>
@@ -1742,13 +1761,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>2</v>
@@ -1767,13 +1786,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>2</v>
@@ -1781,115 +1800,119 @@
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="I45" s="4" t="s">
+      <c r="F47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="I47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="K47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="I46" s="4" t="s">
+      <c r="F48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="I48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="S48" s="4"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1902,13 +1925,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I49" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>59</v>
@@ -1925,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>59</v>
@@ -1948,13 +1971,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>59</v>
@@ -1971,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I52" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>59</v>
@@ -1994,13 +2017,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I53" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>59</v>
@@ -2017,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>59</v>
@@ -2040,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>59</v>
@@ -2063,49 +2086,95 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>9</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="I57" s="4" t="s">
+      <c r="F59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="I59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="S57" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="S59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>f</t>
   </si>
@@ -245,30 +245,6 @@
     <t>ropt</t>
   </si>
   <si>
-    <t>rcmd,ropt</t>
-  </si>
-  <si>
-    <t>ctrl,rcmd,ropt</t>
-  </si>
-  <si>
-    <t>ctrl,ropt</t>
-  </si>
-  <si>
-    <t>ctrl,lcmd,rcmd</t>
-  </si>
-  <si>
-    <t>ctrl,rcmd,lopt</t>
-  </si>
-  <si>
-    <t>ctrl,lcmd</t>
-  </si>
-  <si>
-    <t>ctrl,lopt</t>
-  </si>
-  <si>
-    <t>ctrl,rcmd</t>
-  </si>
-  <si>
     <t>選択範囲各行でマルチカーソル</t>
   </si>
   <si>
@@ -300,6 +276,33 @@
   </si>
   <si>
     <t>次のマッチを選択</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>fn,ropt</t>
+  </si>
+  <si>
+    <t>fn,lcmd,rcmd</t>
+  </si>
+  <si>
+    <t>fn,rcmd,lopt</t>
+  </si>
+  <si>
+    <t>fn,lcmd</t>
+  </si>
+  <si>
+    <t>fn,lopt</t>
+  </si>
+  <si>
+    <t>fn,rcmd</t>
+  </si>
+  <si>
+    <t>lctrl</t>
+  </si>
+  <si>
+    <t>fn,lctrl</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>68</v>
@@ -819,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>69</v>
@@ -839,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>70</v>
@@ -859,13 +862,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>71</v>
@@ -882,18 +885,18 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -908,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
@@ -937,14 +940,14 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G8" s="11"/>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -961,14 +964,14 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -985,14 +988,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1009,14 +1012,14 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1030,14 +1033,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
@@ -1054,134 +1057,128 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="I14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1191,17 +1188,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -1212,328 +1209,334 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G21" s="11"/>
       <c r="I21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G22" s="11"/>
       <c r="I22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G23" s="11"/>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="I24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" s="11"/>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" s="11"/>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="O28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="M29" s="4"/>
       <c r="O29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="F30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1546,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>10</v>
@@ -1563,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -1580,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
@@ -1597,7 +1600,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>16</v>
@@ -1614,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
@@ -1631,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>20</v>
@@ -1651,7 +1654,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>25</v>
@@ -1673,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>26</v>
@@ -1695,7 +1698,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>27</v>
@@ -1717,7 +1720,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>28</v>
@@ -1739,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>35</v>
@@ -1764,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>37</v>
@@ -1789,7 +1792,7 @@
         <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>39</v>
@@ -1814,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>61</v>
@@ -1839,7 +1842,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>62</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>66</v>
@@ -1867,7 +1870,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4"/>
       <c r="I47" s="4" t="s">
@@ -1884,7 +1887,7 @@
     </row>
     <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
@@ -1899,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4" t="s">
@@ -1928,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -1951,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
@@ -1974,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I51" s="2">
         <v>2</v>
@@ -1997,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2">
         <v>3</v>
@@ -2020,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I53" s="2">
         <v>4</v>
@@ -2043,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I54" s="2">
         <v>5</v>
@@ -2066,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I55" s="2">
         <v>6</v>
@@ -2089,7 +2092,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I56" s="2">
         <v>7</v>
@@ -2112,7 +2115,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I57" s="2">
         <v>8</v>
@@ -2135,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I58" s="2">
         <v>9</v>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>65</v>
@@ -2161,7 +2164,7 @@
         <v>26</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G59" s="4"/>
       <c r="I59" s="4" t="s">

--- a/map.xlsx
+++ b/map.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
   <si>
     <t>f</t>
   </si>
@@ -245,6 +245,30 @@
     <t>ropt</t>
   </si>
   <si>
+    <t>rcmd,ropt</t>
+  </si>
+  <si>
+    <t>ctrl,rcmd,ropt</t>
+  </si>
+  <si>
+    <t>ctrl,ropt</t>
+  </si>
+  <si>
+    <t>ctrl,lcmd,rcmd</t>
+  </si>
+  <si>
+    <t>ctrl,rcmd,lopt</t>
+  </si>
+  <si>
+    <t>ctrl,lcmd</t>
+  </si>
+  <si>
+    <t>ctrl,lopt</t>
+  </si>
+  <si>
+    <t>ctrl,rcmd</t>
+  </si>
+  <si>
     <t>選択範囲各行でマルチカーソル</t>
   </si>
   <si>
@@ -276,33 +300,6 @@
   </si>
   <si>
     <t>次のマッチを選択</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>fn,ropt</t>
-  </si>
-  <si>
-    <t>fn,lcmd,rcmd</t>
-  </si>
-  <si>
-    <t>fn,rcmd,lopt</t>
-  </si>
-  <si>
-    <t>fn,lcmd</t>
-  </si>
-  <si>
-    <t>fn,lopt</t>
-  </si>
-  <si>
-    <t>fn,rcmd</t>
-  </si>
-  <si>
-    <t>lctrl</t>
-  </si>
-  <si>
-    <t>fn,lctrl</t>
   </si>
 </sst>
 </file>
@@ -708,7 +705,7 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>68</v>
@@ -822,10 +819,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>69</v>
@@ -842,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>70</v>
@@ -862,13 +859,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>71</v>
@@ -885,18 +882,18 @@
         <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>65</v>
@@ -911,7 +908,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G7" s="4"/>
       <c r="I7" s="4" t="s">
@@ -940,14 +937,14 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G8" s="11"/>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -964,14 +961,14 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -988,14 +985,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G10" s="11"/>
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1012,14 +1009,14 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G11" s="11"/>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1033,14 +1030,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>2</v>
@@ -1057,128 +1054,134 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="I15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1188,17 +1191,17 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G18" s="11"/>
       <c r="I18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -1209,334 +1212,328 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" s="11"/>
       <c r="I19" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G20" s="11"/>
       <c r="I20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G21" s="11"/>
       <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G22" s="11"/>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G23" s="11"/>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="I24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="O24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="O25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" s="11"/>
       <c r="I26" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G27" s="11"/>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
       <c r="O28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="M29" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
       <c r="O29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
+    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="I30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1549,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>10</v>
@@ -1566,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>14</v>
@@ -1583,7 +1580,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>15</v>
@@ -1600,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>16</v>
@@ -1617,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>19</v>
@@ -1634,7 +1631,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>20</v>
@@ -1654,7 +1651,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>25</v>
@@ -1676,7 +1673,7 @@
         <v>22</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>26</v>
@@ -1698,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>27</v>
@@ -1720,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>28</v>
@@ -1742,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>35</v>
@@ -1767,7 +1764,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>37</v>
@@ -1792,7 +1789,7 @@
         <v>38</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>39</v>
@@ -1817,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>61</v>
@@ -1842,7 +1839,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>62</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>66</v>
@@ -1870,7 +1867,7 @@
         <v>37</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4"/>
       <c r="I47" s="4" t="s">
@@ -1887,7 +1884,7 @@
     </row>
     <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>66</v>
@@ -1902,7 +1899,7 @@
         <v>35</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4"/>
       <c r="I48" s="4" t="s">
@@ -1931,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -1954,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2">
         <v>1</v>
@@ -1977,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2">
         <v>2</v>
@@ -2000,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2">
         <v>3</v>
@@ -2023,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2">
         <v>4</v>
@@ -2046,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2">
         <v>5</v>
@@ -2069,7 +2066,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2">
         <v>6</v>
@@ -2092,7 +2089,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2">
         <v>7</v>
@@ -2115,7 +2112,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2">
         <v>8</v>
@@ -2138,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I58" s="2">
         <v>9</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="59" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>65</v>
@@ -2164,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4"/>
       <c r="I59" s="4" t="s">

--- a/map.xlsx
+++ b/map.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="91">
   <si>
     <t>f</t>
   </si>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1275,17 +1275,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G22" s="11"/>
       <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -1296,26 +1293,20 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G23" s="11"/>
       <c r="I23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
@@ -1323,22 +1314,20 @@
         <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="11"/>
       <c r="I24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
@@ -1346,14 +1335,15 @@
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="11"/>
       <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1366,20 +1356,17 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="11"/>
       <c r="I26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K26" s="5"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1392,182 +1379,197 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="11"/>
       <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="I28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="L28" s="6"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="G29" s="11"/>
+      <c r="I29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="O28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="O29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
       <c r="O30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
       <c r="O31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1577,13 +1579,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -1594,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -1611,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -1628,58 +1630,48 @@
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="6"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1692,13 +1684,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
@@ -1714,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
@@ -1736,16 +1728,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
@@ -1761,16 +1750,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
@@ -1786,13 +1772,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>2</v>
@@ -1811,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>2</v>
@@ -1836,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>2</v>
@@ -1850,115 +1836,119 @@
       <c r="K46" s="5"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="I47" s="4" t="s">
+      <c r="F49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="I49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="K49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="I48" s="4" t="s">
+      <c r="F50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="I50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="K50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="S50" s="4"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1971,13 +1961,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I51" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>59</v>
@@ -1994,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>59</v>
@@ -2017,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>59</v>
@@ -2040,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I54" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>59</v>
@@ -2063,13 +2053,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>59</v>
@@ -2086,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
@@ -2109,13 +2099,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I57" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>59</v>
@@ -2132,49 +2122,95 @@
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I58" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="I59" s="4" t="s">
+      <c r="F61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="I61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="S59" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="S61" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takanopontaro/src/github.com/takanopontaro/Karabiner-Elements-keymap-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EF16C2-0D29-924D-AE3D-F59FD6007B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D8ACBF-6EEE-5A45-A4B5-DBBEB8CB316D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="83">
   <si>
     <t>f</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>現在地より後を削除</t>
+  </si>
+  <si>
+    <t>説明</t>
   </si>
 </sst>
 </file>
@@ -845,6 +848,9 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
@@ -863,6 +869,9 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15">
         <v>1</v>
@@ -889,6 +898,9 @@
       <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16">
@@ -915,6 +927,9 @@
       <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16">
@@ -941,6 +956,9 @@
       <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B6" s="14"/>
       <c r="C6" s="15">
         <v>1</v>
@@ -965,6 +983,9 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15">
         <v>1</v>
@@ -1297,6 +1318,9 @@
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="15">
         <v>1</v>
@@ -1323,6 +1347,9 @@
       <c r="S16" s="19"/>
     </row>
     <row r="17" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15">
         <v>1</v>
@@ -1349,6 +1376,9 @@
       <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15">
         <v>1</v>
@@ -1375,6 +1405,9 @@
       <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15">
         <v>1</v>
@@ -1401,6 +1434,9 @@
       <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15">
         <v>1</v>
@@ -1425,6 +1461,9 @@
       <c r="S20" s="19"/>
     </row>
     <row r="21" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15">
         <v>1</v>
@@ -1451,6 +1490,9 @@
       <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15">
         <v>1</v>
@@ -1477,6 +1519,9 @@
       <c r="S22" s="19"/>
     </row>
     <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15">
         <v>1</v>
@@ -1502,6 +1547,9 @@
       <c r="S23" s="19"/>
     </row>
     <row r="24" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="16">
@@ -1524,6 +1572,9 @@
       <c r="S24" s="19"/>
     </row>
     <row r="25" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16">
@@ -1546,6 +1597,9 @@
       <c r="S25" s="19"/>
     </row>
     <row r="26" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16">
@@ -1570,6 +1624,9 @@
       <c r="S26" s="19"/>
     </row>
     <row r="27" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="16">
@@ -1707,6 +1764,9 @@
       <c r="S31" s="19"/>
     </row>
     <row r="32" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16"/>
@@ -1734,6 +1794,9 @@
       <c r="S32" s="19"/>
     </row>
     <row r="33" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="16"/>
@@ -1760,6 +1823,9 @@
       <c r="S33" s="19"/>
     </row>
     <row r="34" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
@@ -1785,6 +1851,9 @@
       <c r="S34" s="19"/>
     </row>
     <row r="35" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="16"/>
@@ -2001,6 +2070,9 @@
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G44" s="9">
         <v>1</v>
       </c>
@@ -2016,6 +2088,9 @@
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G45" s="9">
         <v>1</v>
       </c>
@@ -2031,6 +2106,9 @@
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
@@ -2057,6 +2135,9 @@
       <c r="S46" s="19"/>
     </row>
     <row r="47" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
@@ -2083,6 +2164,9 @@
       <c r="S47" s="19"/>
     </row>
     <row r="48" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
@@ -2108,7 +2192,10 @@
       <c r="Q48" s="19"/>
       <c r="S48" s="19"/>
     </row>
-    <row r="49" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
@@ -2134,7 +2221,10 @@
       <c r="Q49" s="19"/>
       <c r="S49" s="19"/>
     </row>
-    <row r="50" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="16"/>
@@ -2160,7 +2250,10 @@
       <c r="Q50" s="19"/>
       <c r="S50" s="19"/>
     </row>
-    <row r="51" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="16"/>
@@ -2186,7 +2279,10 @@
       <c r="Q51" s="19"/>
       <c r="S51" s="19"/>
     </row>
-    <row r="52" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="16"/>
@@ -2208,7 +2304,10 @@
       <c r="Q52" s="19"/>
       <c r="S52" s="19"/>
     </row>
-    <row r="53" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
@@ -2230,7 +2329,10 @@
       <c r="Q53" s="19"/>
       <c r="S53" s="19"/>
     </row>
-    <row r="54" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
@@ -2252,7 +2354,10 @@
       <c r="Q54" s="19"/>
       <c r="S54" s="19"/>
     </row>
-    <row r="55" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="16"/>
@@ -2274,7 +2379,10 @@
       <c r="Q55" s="19"/>
       <c r="S55" s="19"/>
     </row>
-    <row r="56" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
@@ -2296,7 +2404,10 @@
       <c r="Q56" s="19"/>
       <c r="S56" s="19"/>
     </row>
-    <row r="57" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="16"/>
@@ -2318,7 +2429,10 @@
       <c r="Q57" s="19"/>
       <c r="S57" s="19"/>
     </row>
-    <row r="58" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="16"/>
@@ -2338,7 +2452,10 @@
       <c r="Q58" s="19"/>
       <c r="S58" s="19"/>
     </row>
-    <row r="59" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
@@ -2358,7 +2475,10 @@
       <c r="Q59" s="19"/>
       <c r="S59" s="19"/>
     </row>
-    <row r="60" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16"/>
@@ -2378,7 +2498,10 @@
       <c r="Q60" s="19"/>
       <c r="S60" s="19"/>
     </row>
-    <row r="61" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
@@ -2398,7 +2521,10 @@
       <c r="Q61" s="19"/>
       <c r="S61" s="19"/>
     </row>
-    <row r="62" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
@@ -2420,7 +2546,10 @@
       <c r="Q62" s="19"/>
       <c r="S62" s="19"/>
     </row>
-    <row r="63" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="16"/>
@@ -2442,7 +2571,10 @@
       <c r="Q63" s="19"/>
       <c r="S63" s="19"/>
     </row>
-    <row r="64" spans="2:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="16"/>
@@ -2783,7 +2915,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A16:I19 L16:XFD19 A20:XFD35 A2:XFD15 A44:XFD64 A36:A43 C36:XFD43 A67:XFD78 A65:A66 C65:XFD66 A80:XFD1048576 A79 C79:XFD79">
+  <conditionalFormatting sqref="L16:XFD19 A44:XFD64 C36:XFD43 A67:XFD78 C65:XFD66 A80:XFD1048576 A79 C79:XFD79 A2:XFD15 A16:I16 B17:I19 B20:XFD27 A17:A27 A28:XFD35 A36:A66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
